--- a/biology/Mycologie/Pholiote_écailleuse/Pholiote_écailleuse.xlsx
+++ b/biology/Mycologie/Pholiote_écailleuse/Pholiote_écailleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pholiote_%C3%A9cailleuse</t>
+          <t>Pholiote_écailleuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pholiota squarrosa
 Pholiota squarrosa, de son nom vernaculaire la Pholiote écailleuse, est un champignon basidiomycète de la famille des Strophariaceae. Elle possède un chapeau hémisphérique, ensuite étalé (4 à 12 cm de diamètre), sec et charnu de couleur jaune clair à ocre clair avec des reflets verdâtres, une marge enroulée, est parsemé d’écailles rousses. Les lames adnées à légèrement décurrentes, étroites et serrées  sont de couleur jaunâtre avec des reflets verts puis brunissent en vieillissant. Le pied élancé, coriace et fibreux, de 8 à 15 cm de haut, a un diamètre de 1 à 1,5 cm,  est jaunâtre et plus tard passe aussi à des tons rouille. Il est muni d’un anneau dans sa partie supérieure qui est lisse et couvert d’écailles sous celui-ci. Sa chair jaunâtre un peu fauve dans le pied, exhale une odeur peu agréable de bois pourri et a une saveur amère qui rappelle la rave. Elle pousse de la fin de l'été à la fin de l’automne au pied des feuillus et même de certains conifères.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pholiote_%C3%A9cailleuse</t>
+          <t>Pholiote_écailleuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’un champignon non comestible pouvant provoquer des troubles digestifs sérieux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pholiote_%C3%A9cailleuse</t>
+          <t>Pholiote_écailleuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut confondre la pholiote écailleuse avec la pholiote dorée (Pholiota aurea).
 </t>
